--- a/BackTest/2019-11-02 BackTest XLM.xlsx
+++ b/BackTest/2019-11-02 BackTest XLM.xlsx
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -10954,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -24082,10 +24082,10 @@
         <v>0</v>
       </c>
       <c r="J677" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K677" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="L677" t="inlineStr"/>
       <c r="M677" t="n">
@@ -24121,10 +24121,10 @@
         <v>0</v>
       </c>
       <c r="J678" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K678" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -24167,7 +24167,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K679" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -24621,20 +24621,14 @@
         <v>80.41499999999995</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
       </c>
-      <c r="J692" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24662,20 +24656,14 @@
         <v>80.40999999999994</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="n">
         <v>0</v>
       </c>
-      <c r="J693" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L693" t="inlineStr"/>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24703,20 +24691,14 @@
         <v>80.41166666666662</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I694" t="n">
         <v>0</v>
       </c>
-      <c r="J694" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L694" t="inlineStr"/>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24744,20 +24726,14 @@
         <v>80.41666666666661</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I695" t="n">
         <v>0</v>
       </c>
-      <c r="J695" t="n">
-        <v>80.59999999999999</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24792,11 +24768,7 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L696" t="inlineStr"/>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24831,11 +24803,7 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L697" t="inlineStr"/>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -24870,11 +24838,7 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L698" t="inlineStr"/>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -24909,11 +24873,7 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L699" t="inlineStr"/>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -24948,11 +24908,7 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L700" t="inlineStr"/>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -24987,11 +24943,7 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L701" t="inlineStr"/>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -25026,11 +24978,7 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L702" t="inlineStr"/>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -25065,11 +25013,7 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L703" t="inlineStr"/>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25104,11 +25048,7 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L704" t="inlineStr"/>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25143,11 +25083,7 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L705" t="inlineStr"/>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25182,11 +25118,7 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L706" t="inlineStr"/>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25214,20 +25146,14 @@
         <v>80.30166666666665</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
       </c>
-      <c r="J707" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L707" t="inlineStr"/>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25262,11 +25188,7 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L708" t="inlineStr"/>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25294,20 +25216,14 @@
         <v>80.27833333333329</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
       </c>
-      <c r="J709" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L709" t="inlineStr"/>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25335,20 +25251,14 @@
         <v>80.26666666666664</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
       </c>
-      <c r="J710" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L710" t="inlineStr"/>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25376,20 +25286,14 @@
         <v>80.25499999999997</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
         <v>0</v>
       </c>
-      <c r="J711" t="n">
-        <v>80</v>
-      </c>
+      <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L711" t="inlineStr"/>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25417,20 +25321,14 @@
         <v>80.24499999999996</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
       </c>
-      <c r="J712" t="n">
-        <v>80</v>
-      </c>
+      <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L712" t="inlineStr"/>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25458,20 +25356,14 @@
         <v>80.24166666666663</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
       </c>
-      <c r="J713" t="n">
-        <v>80</v>
-      </c>
+      <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L713" t="inlineStr"/>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25499,20 +25391,14 @@
         <v>80.23333333333331</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I714" t="n">
         <v>0</v>
       </c>
-      <c r="J714" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L714" t="inlineStr"/>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25540,20 +25426,14 @@
         <v>80.22666666666665</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
       </c>
-      <c r="J715" t="n">
-        <v>80</v>
-      </c>
+      <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L715" t="inlineStr"/>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25581,20 +25461,14 @@
         <v>80.22499999999997</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
       </c>
-      <c r="J716" t="n">
-        <v>79.8</v>
-      </c>
+      <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L716" t="inlineStr"/>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25622,20 +25496,14 @@
         <v>80.2233333333333</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I717" t="n">
         <v>0</v>
       </c>
-      <c r="J717" t="n">
-        <v>80</v>
-      </c>
+      <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L717" t="inlineStr"/>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25663,20 +25531,14 @@
         <v>80.21499999999996</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
       </c>
-      <c r="J718" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L718" t="inlineStr"/>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25704,20 +25566,14 @@
         <v>80.20666666666664</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
       </c>
-      <c r="J719" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L719" t="inlineStr"/>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25745,20 +25601,14 @@
         <v>80.19166666666662</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I720" t="n">
         <v>0</v>
       </c>
-      <c r="J720" t="n">
-        <v>79.7</v>
-      </c>
+      <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L720" t="inlineStr"/>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25786,20 +25636,14 @@
         <v>80.18333333333329</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721" t="n">
         <v>0</v>
       </c>
-      <c r="J721" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L721" t="inlineStr"/>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -25827,20 +25671,14 @@
         <v>80.17499999999995</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I722" t="n">
         <v>0</v>
       </c>
-      <c r="J722" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L722" t="inlineStr"/>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -25868,20 +25706,14 @@
         <v>80.16999999999994</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I723" t="n">
         <v>0</v>
       </c>
-      <c r="J723" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L723" t="inlineStr"/>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -25909,20 +25741,14 @@
         <v>80.16499999999995</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I724" t="n">
         <v>0</v>
       </c>
-      <c r="J724" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L724" t="inlineStr"/>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -25950,20 +25776,14 @@
         <v>80.15999999999994</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I725" t="n">
         <v>0</v>
       </c>
-      <c r="J725" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L725" t="inlineStr"/>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -25991,20 +25811,14 @@
         <v>80.15833333333329</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I726" t="n">
         <v>0</v>
       </c>
-      <c r="J726" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L726" t="inlineStr"/>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -26032,20 +25846,14 @@
         <v>80.15833333333329</v>
       </c>
       <c r="H727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I727" t="n">
         <v>0</v>
       </c>
-      <c r="J727" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L727" t="inlineStr"/>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -26073,20 +25881,14 @@
         <v>80.15499999999996</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I728" t="n">
         <v>0</v>
       </c>
-      <c r="J728" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L728" t="inlineStr"/>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -26114,20 +25916,14 @@
         <v>80.15166666666663</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I729" t="n">
         <v>0</v>
       </c>
-      <c r="J729" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L729" t="inlineStr"/>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -26155,20 +25951,14 @@
         <v>80.15166666666663</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I730" t="n">
         <v>0</v>
       </c>
-      <c r="J730" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L730" t="inlineStr"/>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -26196,20 +25986,14 @@
         <v>80.15666666666661</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I731" t="n">
         <v>0</v>
       </c>
-      <c r="J731" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L731" t="inlineStr"/>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26237,20 +26021,14 @@
         <v>80.16166666666662</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="n">
         <v>0</v>
       </c>
-      <c r="J732" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L732" t="inlineStr"/>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26278,20 +26056,14 @@
         <v>80.16666666666661</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I733" t="n">
         <v>0</v>
       </c>
-      <c r="J733" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L733" t="inlineStr"/>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26319,20 +26091,14 @@
         <v>80.16666666666661</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I734" t="n">
         <v>0</v>
       </c>
-      <c r="J734" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L734" t="inlineStr"/>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26360,20 +26126,14 @@
         <v>80.16666666666661</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="n">
         <v>0</v>
       </c>
-      <c r="J735" t="n">
-        <v>79.90000000000001</v>
-      </c>
+      <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L735" t="inlineStr"/>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26401,20 +26161,14 @@
         <v>80.17166666666662</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I736" t="n">
         <v>0</v>
       </c>
-      <c r="J736" t="n">
-        <v>80</v>
-      </c>
+      <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L736" t="inlineStr"/>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26442,20 +26196,14 @@
         <v>80.16999999999994</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I737" t="n">
         <v>0</v>
       </c>
-      <c r="J737" t="n">
-        <v>80</v>
-      </c>
+      <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L737" t="inlineStr"/>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26483,20 +26231,14 @@
         <v>80.16666666666661</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I738" t="n">
         <v>0</v>
       </c>
-      <c r="J738" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L738" t="inlineStr"/>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26524,20 +26266,14 @@
         <v>80.16666666666661</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I739" t="n">
         <v>0</v>
       </c>
-      <c r="J739" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L739" t="inlineStr"/>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26565,20 +26301,14 @@
         <v>80.16499999999996</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I740" t="n">
         <v>0</v>
       </c>
-      <c r="J740" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L740" t="inlineStr"/>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26606,20 +26336,14 @@
         <v>80.16333333333328</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I741" t="n">
         <v>0</v>
       </c>
-      <c r="J741" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L741" t="inlineStr"/>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26647,20 +26371,14 @@
         <v>80.16333333333328</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I742" t="n">
         <v>0</v>
       </c>
-      <c r="J742" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L742" t="inlineStr"/>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26688,20 +26406,14 @@
         <v>80.16166666666662</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I743" t="n">
         <v>0</v>
       </c>
-      <c r="J743" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L743" t="inlineStr"/>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26729,20 +26441,14 @@
         <v>80.15666666666661</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I744" t="n">
         <v>0</v>
       </c>
-      <c r="J744" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L744" t="inlineStr"/>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26770,20 +26476,14 @@
         <v>80.14666666666662</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I745" t="n">
         <v>0</v>
       </c>
-      <c r="J745" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L745" t="inlineStr"/>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26518,7 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L746" t="inlineStr"/>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26850,20 +26546,14 @@
         <v>80.14999999999996</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I747" t="n">
         <v>0</v>
       </c>
-      <c r="J747" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L747" t="inlineStr"/>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26891,20 +26581,14 @@
         <v>80.14833333333331</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I748" t="n">
         <v>0</v>
       </c>
-      <c r="J748" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L748" t="inlineStr"/>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26932,20 +26616,14 @@
         <v>80.15499999999997</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I749" t="n">
         <v>0</v>
       </c>
-      <c r="J749" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L749" t="inlineStr"/>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -26973,20 +26651,14 @@
         <v>80.16333333333331</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I750" t="n">
         <v>0</v>
       </c>
-      <c r="J750" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L750" t="inlineStr"/>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -27014,20 +26686,14 @@
         <v>80.16333333333331</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I751" t="n">
         <v>0</v>
       </c>
-      <c r="J751" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L751" t="inlineStr"/>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -27062,11 +26728,7 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L752" t="inlineStr"/>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -27101,11 +26763,7 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L753" t="inlineStr"/>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -27140,11 +26798,7 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L754" t="inlineStr"/>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -27172,20 +26826,14 @@
         <v>80.13999999999997</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I755" t="n">
         <v>0</v>
       </c>
-      <c r="J755" t="n">
-        <v>80</v>
-      </c>
+      <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -27213,20 +26861,14 @@
         <v>80.13666666666664</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I756" t="n">
         <v>0</v>
       </c>
-      <c r="J756" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L756" t="inlineStr"/>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -27254,20 +26896,14 @@
         <v>80.13833333333331</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I757" t="n">
         <v>0</v>
       </c>
-      <c r="J757" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L757" t="inlineStr"/>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -27295,20 +26931,14 @@
         <v>80.1283333333333</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I758" t="n">
         <v>0</v>
       </c>
-      <c r="J758" t="n">
-        <v>80</v>
-      </c>
+      <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L758" t="inlineStr"/>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -27336,20 +26966,14 @@
         <v>80.1283333333333</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I759" t="n">
         <v>0</v>
       </c>
-      <c r="J759" t="n">
-        <v>80.09999999999999</v>
-      </c>
+      <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L759" t="inlineStr"/>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -27377,20 +27001,14 @@
         <v>80.12499999999997</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I760" t="n">
         <v>0</v>
       </c>
-      <c r="J760" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L760" t="inlineStr"/>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27418,20 +27036,14 @@
         <v>80.12499999999997</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I761" t="n">
         <v>0</v>
       </c>
-      <c r="J761" t="n">
-        <v>80.3</v>
-      </c>
+      <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L761" t="inlineStr"/>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27459,20 +27071,14 @@
         <v>80.12333333333331</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I762" t="n">
         <v>0</v>
       </c>
-      <c r="J762" t="n">
-        <v>80.2</v>
-      </c>
+      <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L762" t="inlineStr"/>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27500,20 +27106,14 @@
         <v>80.1283333333333</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I763" t="n">
         <v>0</v>
       </c>
-      <c r="J763" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L763" t="inlineStr"/>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27541,20 +27141,14 @@
         <v>80.1283333333333</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I764" t="n">
         <v>0</v>
       </c>
-      <c r="J764" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L764" t="inlineStr"/>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27582,20 +27176,14 @@
         <v>80.13499999999998</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I765" t="n">
         <v>0</v>
       </c>
-      <c r="J765" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L765" t="inlineStr"/>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27630,11 +27218,7 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L766" t="inlineStr"/>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27669,11 +27253,7 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L767" t="inlineStr"/>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27708,11 +27288,7 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L768" t="inlineStr"/>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27747,11 +27323,7 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L769" t="inlineStr"/>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27786,11 +27358,7 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L770" t="inlineStr"/>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27825,11 +27393,7 @@
       </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
-      <c r="L771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L771" t="inlineStr"/>
       <c r="M771" t="n">
         <v>1</v>
       </c>
@@ -27864,11 +27428,7 @@
       </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
-      <c r="L772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L772" t="inlineStr"/>
       <c r="M772" t="n">
         <v>1</v>
       </c>
@@ -27903,11 +27463,7 @@
       </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
-      <c r="L773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L773" t="inlineStr"/>
       <c r="M773" t="n">
         <v>1</v>
       </c>
@@ -27942,11 +27498,7 @@
       </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
-      <c r="L774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L774" t="inlineStr"/>
       <c r="M774" t="n">
         <v>1</v>
       </c>
@@ -27981,11 +27533,7 @@
       </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
-      <c r="L775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L775" t="inlineStr"/>
       <c r="M775" t="n">
         <v>1</v>
       </c>
@@ -28020,11 +27568,7 @@
       </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
-      <c r="L776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L776" t="inlineStr"/>
       <c r="M776" t="n">
         <v>1</v>
       </c>
@@ -28059,11 +27603,7 @@
       </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
-      <c r="L777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L777" t="inlineStr"/>
       <c r="M777" t="n">
         <v>1</v>
       </c>
@@ -28098,11 +27638,7 @@
       </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
-      <c r="L778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L778" t="inlineStr"/>
       <c r="M778" t="n">
         <v>1</v>
       </c>
@@ -28137,11 +27673,7 @@
       </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
-      <c r="L779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L779" t="inlineStr"/>
       <c r="M779" t="n">
         <v>1</v>
       </c>
@@ -28176,11 +27708,7 @@
       </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
-      <c r="L780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L780" t="inlineStr"/>
       <c r="M780" t="n">
         <v>1</v>
       </c>
@@ -28215,11 +27743,7 @@
       </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
-      <c r="L781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L781" t="inlineStr"/>
       <c r="M781" t="n">
         <v>1</v>
       </c>
@@ -28254,11 +27778,7 @@
       </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
-      <c r="L782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L782" t="inlineStr"/>
       <c r="M782" t="n">
         <v>1</v>
       </c>
@@ -28293,11 +27813,7 @@
       </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
-      <c r="L783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L783" t="inlineStr"/>
       <c r="M783" t="n">
         <v>1</v>
       </c>
@@ -28332,11 +27848,7 @@
       </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
-      <c r="L784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L784" t="inlineStr"/>
       <c r="M784" t="n">
         <v>1</v>
       </c>
@@ -28371,11 +27883,7 @@
       </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
-      <c r="L785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L785" t="inlineStr"/>
       <c r="M785" t="n">
         <v>1</v>
       </c>
@@ -28410,11 +27918,7 @@
       </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
-      <c r="L786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L786" t="inlineStr"/>
       <c r="M786" t="n">
         <v>1</v>
       </c>
@@ -28449,11 +27953,7 @@
       </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
-      <c r="L787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L787" t="inlineStr"/>
       <c r="M787" t="n">
         <v>1</v>
       </c>
@@ -28488,11 +27988,7 @@
       </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
-      <c r="L788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L788" t="inlineStr"/>
       <c r="M788" t="n">
         <v>1</v>
       </c>
@@ -28527,11 +28023,7 @@
       </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
-      <c r="L789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L789" t="inlineStr"/>
       <c r="M789" t="n">
         <v>1</v>
       </c>
@@ -28566,11 +28058,7 @@
       </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
-      <c r="L790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L790" t="inlineStr"/>
       <c r="M790" t="n">
         <v>1</v>
       </c>
@@ -28605,11 +28093,7 @@
       </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
-      <c r="L791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L791" t="inlineStr"/>
       <c r="M791" t="n">
         <v>1</v>
       </c>
@@ -28644,11 +28128,7 @@
       </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
-      <c r="L792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L792" t="inlineStr"/>
       <c r="M792" t="n">
         <v>1</v>
       </c>
@@ -28683,11 +28163,7 @@
       </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
-      <c r="L793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L793" t="inlineStr"/>
       <c r="M793" t="n">
         <v>1</v>
       </c>
@@ -28722,11 +28198,7 @@
       </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
-      <c r="L794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L794" t="inlineStr"/>
       <c r="M794" t="n">
         <v>1</v>
       </c>
@@ -28761,11 +28233,7 @@
       </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
-      <c r="L795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L795" t="inlineStr"/>
       <c r="M795" t="n">
         <v>1</v>
       </c>
@@ -28800,11 +28268,7 @@
       </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
-      <c r="L796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L796" t="inlineStr"/>
       <c r="M796" t="n">
         <v>1</v>
       </c>
@@ -28839,11 +28303,7 @@
       </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
-      <c r="L797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L797" t="inlineStr"/>
       <c r="M797" t="n">
         <v>1</v>
       </c>
@@ -28878,11 +28338,7 @@
       </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
-      <c r="L798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L798" t="inlineStr"/>
       <c r="M798" t="n">
         <v>1</v>
       </c>
@@ -28917,11 +28373,7 @@
       </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
-      <c r="L799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L799" t="inlineStr"/>
       <c r="M799" t="n">
         <v>1</v>
       </c>
@@ -28956,11 +28408,7 @@
       </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
-      <c r="L800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L800" t="inlineStr"/>
       <c r="M800" t="n">
         <v>1</v>
       </c>
@@ -28995,11 +28443,7 @@
       </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
-      <c r="L801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L801" t="inlineStr"/>
       <c r="M801" t="n">
         <v>1</v>
       </c>
@@ -29034,11 +28478,7 @@
       </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
-      <c r="L802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L802" t="inlineStr"/>
       <c r="M802" t="n">
         <v>1</v>
       </c>
@@ -29073,11 +28513,7 @@
       </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
-      <c r="L803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L803" t="inlineStr"/>
       <c r="M803" t="n">
         <v>1</v>
       </c>
@@ -29112,11 +28548,7 @@
       </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
-      <c r="L804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L804" t="inlineStr"/>
       <c r="M804" t="n">
         <v>1</v>
       </c>
@@ -29151,11 +28583,7 @@
       </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr"/>
-      <c r="L805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L805" t="inlineStr"/>
       <c r="M805" t="n">
         <v>1</v>
       </c>
@@ -29190,11 +28618,7 @@
       </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr"/>
-      <c r="L806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L806" t="inlineStr"/>
       <c r="M806" t="n">
         <v>1</v>
       </c>
@@ -29229,11 +28653,7 @@
       </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr"/>
-      <c r="L807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L807" t="inlineStr"/>
       <c r="M807" t="n">
         <v>1</v>
       </c>
@@ -29268,11 +28688,7 @@
       </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr"/>
-      <c r="L808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L808" t="inlineStr"/>
       <c r="M808" t="n">
         <v>1</v>
       </c>
@@ -29307,11 +28723,7 @@
       </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr"/>
-      <c r="L809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L809" t="inlineStr"/>
       <c r="M809" t="n">
         <v>1</v>
       </c>
@@ -29346,11 +28758,7 @@
       </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
-      <c r="L810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L810" t="inlineStr"/>
       <c r="M810" t="n">
         <v>1</v>
       </c>
@@ -29385,11 +28793,7 @@
       </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr"/>
-      <c r="L811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L811" t="inlineStr"/>
       <c r="M811" t="n">
         <v>1</v>
       </c>
@@ -29424,11 +28828,7 @@
       </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr"/>
-      <c r="L812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L812" t="inlineStr"/>
       <c r="M812" t="n">
         <v>1</v>
       </c>
@@ -29463,11 +28863,7 @@
       </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr"/>
-      <c r="L813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L813" t="inlineStr"/>
       <c r="M813" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +28898,7 @@
       </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr"/>
-      <c r="L814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L814" t="inlineStr"/>
       <c r="M814" t="n">
         <v>1</v>
       </c>
@@ -29541,11 +28933,7 @@
       </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr"/>
-      <c r="L815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L815" t="inlineStr"/>
       <c r="M815" t="n">
         <v>1</v>
       </c>
@@ -29580,11 +28968,7 @@
       </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr"/>
-      <c r="L816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L816" t="inlineStr"/>
       <c r="M816" t="n">
         <v>1</v>
       </c>
@@ -29619,11 +29003,7 @@
       </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr"/>
-      <c r="L817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L817" t="inlineStr"/>
       <c r="M817" t="n">
         <v>1</v>
       </c>
@@ -29658,11 +29038,7 @@
       </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr"/>
-      <c r="L818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L818" t="inlineStr"/>
       <c r="M818" t="n">
         <v>1</v>
       </c>
@@ -29697,11 +29073,7 @@
       </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr"/>
-      <c r="L819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L819" t="inlineStr"/>
       <c r="M819" t="n">
         <v>1</v>
       </c>
@@ -29736,11 +29108,7 @@
       </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
-      <c r="L820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L820" t="inlineStr"/>
       <c r="M820" t="n">
         <v>1</v>
       </c>
@@ -29775,11 +29143,7 @@
       </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr"/>
-      <c r="L821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L821" t="inlineStr"/>
       <c r="M821" t="n">
         <v>1</v>
       </c>
@@ -29814,11 +29178,7 @@
       </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr"/>
-      <c r="L822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L822" t="inlineStr"/>
       <c r="M822" t="n">
         <v>1</v>
       </c>
@@ -29853,11 +29213,7 @@
       </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr"/>
-      <c r="L823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L823" t="inlineStr"/>
       <c r="M823" t="n">
         <v>1</v>
       </c>
@@ -29892,11 +29248,7 @@
       </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr"/>
-      <c r="L824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L824" t="inlineStr"/>
       <c r="M824" t="n">
         <v>1</v>
       </c>
@@ -29931,11 +29283,7 @@
       </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
-      <c r="L825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L825" t="inlineStr"/>
       <c r="M825" t="n">
         <v>1</v>
       </c>
@@ -29970,11 +29318,7 @@
       </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
-      <c r="L826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L826" t="inlineStr"/>
       <c r="M826" t="n">
         <v>1</v>
       </c>
@@ -30009,11 +29353,7 @@
       </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr"/>
-      <c r="L827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L827" t="inlineStr"/>
       <c r="M827" t="n">
         <v>1</v>
       </c>
@@ -30048,11 +29388,7 @@
       </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr"/>
-      <c r="L828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L828" t="inlineStr"/>
       <c r="M828" t="n">
         <v>1</v>
       </c>
@@ -30087,11 +29423,7 @@
       </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr"/>
-      <c r="L829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L829" t="inlineStr"/>
       <c r="M829" t="n">
         <v>1</v>
       </c>
@@ -30126,11 +29458,7 @@
       </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr"/>
-      <c r="L830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L830" t="inlineStr"/>
       <c r="M830" t="n">
         <v>1</v>
       </c>
@@ -30165,11 +29493,7 @@
       </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr"/>
-      <c r="L831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L831" t="inlineStr"/>
       <c r="M831" t="n">
         <v>1</v>
       </c>
@@ -30204,11 +29528,7 @@
       </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr"/>
-      <c r="L832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L832" t="inlineStr"/>
       <c r="M832" t="n">
         <v>1</v>
       </c>
@@ -30243,11 +29563,7 @@
       </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr"/>
-      <c r="L833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L833" t="inlineStr"/>
       <c r="M833" t="n">
         <v>1</v>
       </c>
@@ -30282,11 +29598,7 @@
       </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr"/>
-      <c r="L834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L834" t="inlineStr"/>
       <c r="M834" t="n">
         <v>1</v>
       </c>
@@ -30321,11 +29633,7 @@
       </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr"/>
-      <c r="L835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L835" t="inlineStr"/>
       <c r="M835" t="n">
         <v>1</v>
       </c>
@@ -30360,11 +29668,7 @@
       </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr"/>
-      <c r="L836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="n">
         <v>1</v>
       </c>
@@ -30399,11 +29703,7 @@
       </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr"/>
-      <c r="L837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L837" t="inlineStr"/>
       <c r="M837" t="n">
         <v>1</v>
       </c>
@@ -30438,11 +29738,7 @@
       </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr"/>
-      <c r="L838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L838" t="inlineStr"/>
       <c r="M838" t="n">
         <v>1</v>
       </c>
@@ -30477,11 +29773,7 @@
       </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
-      <c r="L839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L839" t="inlineStr"/>
       <c r="M839" t="n">
         <v>1</v>
       </c>
@@ -30516,11 +29808,7 @@
       </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr"/>
-      <c r="L840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L840" t="inlineStr"/>
       <c r="M840" t="n">
         <v>1</v>
       </c>
@@ -30555,11 +29843,7 @@
       </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr"/>
-      <c r="L841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L841" t="inlineStr"/>
       <c r="M841" t="n">
         <v>1</v>
       </c>
@@ -30594,11 +29878,7 @@
       </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
-      <c r="L842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L842" t="inlineStr"/>
       <c r="M842" t="n">
         <v>1</v>
       </c>
@@ -30633,11 +29913,7 @@
       </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr"/>
-      <c r="L843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L843" t="inlineStr"/>
       <c r="M843" t="n">
         <v>1</v>
       </c>
@@ -30672,11 +29948,7 @@
       </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr"/>
-      <c r="L844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L844" t="inlineStr"/>
       <c r="M844" t="n">
         <v>1</v>
       </c>
@@ -30711,11 +29983,7 @@
       </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr"/>
-      <c r="L845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L845" t="inlineStr"/>
       <c r="M845" t="n">
         <v>1</v>
       </c>
@@ -30750,11 +30018,7 @@
       </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr"/>
-      <c r="L846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L846" t="inlineStr"/>
       <c r="M846" t="n">
         <v>1</v>
       </c>
@@ -30789,11 +30053,7 @@
       </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
-      <c r="L847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L847" t="inlineStr"/>
       <c r="M847" t="n">
         <v>1</v>
       </c>
@@ -30828,11 +30088,7 @@
       </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr"/>
-      <c r="L848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L848" t="inlineStr"/>
       <c r="M848" t="n">
         <v>1</v>
       </c>
@@ -30867,11 +30123,7 @@
       </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr"/>
-      <c r="L849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L849" t="inlineStr"/>
       <c r="M849" t="n">
         <v>1</v>
       </c>
@@ -30906,11 +30158,7 @@
       </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr"/>
-      <c r="L850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L850" t="inlineStr"/>
       <c r="M850" t="n">
         <v>1</v>
       </c>
@@ -30945,11 +30193,7 @@
       </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr"/>
-      <c r="L851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="n">
         <v>1</v>
       </c>
@@ -30984,11 +30228,7 @@
       </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr"/>
-      <c r="L852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L852" t="inlineStr"/>
       <c r="M852" t="n">
         <v>1</v>
       </c>
@@ -31023,11 +30263,7 @@
       </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr"/>
-      <c r="L853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L853" t="inlineStr"/>
       <c r="M853" t="n">
         <v>1</v>
       </c>
@@ -31062,11 +30298,7 @@
       </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr"/>
-      <c r="L854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L854" t="inlineStr"/>
       <c r="M854" t="n">
         <v>1</v>
       </c>
@@ -31101,11 +30333,7 @@
       </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr"/>
-      <c r="L855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L855" t="inlineStr"/>
       <c r="M855" t="n">
         <v>1</v>
       </c>
@@ -31140,11 +30368,7 @@
       </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr"/>
-      <c r="L856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L856" t="inlineStr"/>
       <c r="M856" t="n">
         <v>1</v>
       </c>
@@ -31179,11 +30403,7 @@
       </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr"/>
-      <c r="L857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L857" t="inlineStr"/>
       <c r="M857" t="n">
         <v>1</v>
       </c>
@@ -31218,11 +30438,7 @@
       </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr"/>
-      <c r="L858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L858" t="inlineStr"/>
       <c r="M858" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-02 BackTest XLM.xlsx
+++ b/BackTest/2019-11-02 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>9045082.263020758</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>9672977.843520757</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>9623626.520620758</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>9805918.843530519</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>9680187.907330519</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9645268.431330519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>9617567.200330518</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>9560097.196507268</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9676391.788758799</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9540562.268358799</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>9618993.921531169</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>9725346.250531169</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>9702986.010131169</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>9702986.010131169</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>9812588.064231168</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>2069222.599052361</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>2143704.810152361</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>2143704.810152361</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>2143704.810152361</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>2143704.810152361</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>2134761.026352361</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>2006405.128852361</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4776367.873247639</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4798183.476347639</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-5728183.476347639</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-9149452.396747639</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-9094001.836747639</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-9085449.837747639</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-9085449.837747639</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-9098911.376147639</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-9098911.376147639</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1502662.083975882</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -10846,11 +10846,17 @@
         <v>-23336626.77975896</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10885,17 @@
         <v>-23336626.77975896</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>81</v>
+      </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +10924,17 @@
         <v>-23347608.07025896</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>81</v>
+      </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +10963,17 @@
         <v>-23378423.91265896</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11002,17 @@
         <v>-23322428.92515896</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11041,17 @@
         <v>-23381240.66615896</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11080,17 @@
         <v>-23358531.15005895</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11119,17 @@
         <v>-23358531.15005895</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11158,17 @@
         <v>-23347920.91705896</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I325" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11197,17 @@
         <v>-23335420.91705896</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I326" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11180,7 +11240,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11213,7 +11277,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11246,7 +11314,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11279,7 +11351,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11388,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11345,7 +11425,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11378,7 +11462,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11411,7 +11499,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11444,7 +11536,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11477,7 +11573,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11510,7 +11610,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11543,7 +11647,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11576,7 +11684,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11609,7 +11721,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11642,7 +11758,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11795,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11708,7 +11832,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11741,7 +11869,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11774,7 +11906,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11807,7 +11943,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11836,11 +11976,17 @@
         <v>-23408618.85325896</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I347" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11873,7 +12019,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11906,7 +12056,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11939,7 +12093,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -11972,7 +12130,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12005,7 +12167,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12038,7 +12204,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12071,7 +12241,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12104,7 +12278,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12137,7 +12315,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12170,7 +12352,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12203,7 +12389,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12236,7 +12426,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12269,7 +12463,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12302,7 +12500,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12537,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12368,7 +12574,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12401,7 +12611,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12434,7 +12648,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12467,7 +12685,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12500,7 +12722,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12533,7 +12759,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12566,7 +12796,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12599,7 +12833,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12870,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12907,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12698,7 +12944,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12981,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +13018,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +13055,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +13092,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +13129,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13166,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13203,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13240,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13277,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13314,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13351,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13388,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13425,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13462,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13499,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13226,7 +13536,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13259,7 +13573,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13292,7 +13610,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13325,7 +13647,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13358,7 +13684,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13391,7 +13721,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13424,7 +13758,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13457,7 +13795,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13490,7 +13832,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13523,7 +13869,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13556,7 +13906,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13589,7 +13943,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13622,7 +13980,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13655,7 +14017,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13688,7 +14054,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13721,7 +14091,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13754,7 +14128,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13787,7 +14165,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13820,7 +14202,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13853,7 +14239,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13886,7 +14276,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13919,7 +14313,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13952,7 +14350,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14387,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14018,7 +14424,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14051,7 +14461,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14084,7 +14498,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14117,7 +14535,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14150,7 +14572,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14183,7 +14609,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14216,7 +14646,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,7 +14683,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14282,7 +14720,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14315,7 +14757,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14348,7 +14794,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14381,7 +14831,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14414,7 +14868,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,7 +14905,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14480,7 +14942,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14513,7 +14979,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14546,7 +15016,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14579,7 +15053,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14612,7 +15090,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14645,7 +15127,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14678,7 +15164,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14711,7 +15201,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14744,7 +15238,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14777,7 +15275,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14810,7 +15312,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +15349,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14876,7 +15386,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14909,7 +15423,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14942,7 +15460,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -14975,7 +15497,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15008,7 +15534,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15041,7 +15571,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15074,7 +15608,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15107,7 +15645,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15682,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15173,7 +15719,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15206,7 +15756,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15239,7 +15793,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15272,7 +15830,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15305,7 +15867,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15338,7 +15904,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15371,7 +15941,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15404,7 +15978,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15437,7 +16015,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15470,7 +16052,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15503,7 +16089,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15536,7 +16126,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15569,7 +16163,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15602,7 +16200,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15635,7 +16237,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15668,7 +16274,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15701,7 +16311,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15734,7 +16348,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15767,7 +16385,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15800,7 +16422,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15833,7 +16459,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15866,7 +16496,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15899,7 +16533,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15932,7 +16570,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -15965,7 +16607,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16644,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16031,7 +16681,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16064,7 +16718,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16097,7 +16755,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16130,7 +16792,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16163,7 +16829,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16196,7 +16866,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16229,7 +16903,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16262,7 +16940,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16977,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16328,7 +17014,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16361,7 +17051,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +17088,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +17125,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +17162,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +17199,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +17236,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +17273,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +17310,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +17347,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +17384,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +17421,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16724,7 +17458,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16757,7 +17495,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16790,7 +17532,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16823,7 +17569,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16856,7 +17606,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16889,7 +17643,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16922,7 +17680,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16955,7 +17717,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16988,7 +17754,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17021,7 +17791,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17054,7 +17828,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17087,7 +17865,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17120,7 +17902,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17939,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17186,7 +17976,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17219,7 +18013,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17252,7 +18050,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17285,7 +18087,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17318,7 +18124,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17351,7 +18161,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17384,7 +18198,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17417,7 +18235,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +18272,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17483,7 +18309,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17516,7 +18346,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17549,7 +18383,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17582,7 +18420,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17615,7 +18457,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17648,7 +18494,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17681,7 +18531,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17714,7 +18568,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17747,7 +18605,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17780,7 +18642,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17813,7 +18679,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17846,7 +18716,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17879,7 +18753,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17912,7 +18790,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17945,7 +18827,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17978,7 +18864,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18011,7 +18901,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18044,7 +18938,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18077,7 +18975,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18110,7 +19012,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18143,7 +19049,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18176,7 +19086,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18209,7 +19123,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18242,7 +19160,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18275,7 +19197,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +19234,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18341,7 +19271,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18374,7 +19308,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18407,7 +19345,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18440,7 +19382,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18473,7 +19419,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18506,7 +19456,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,7 +19493,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18572,7 +19530,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +19567,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18638,7 +19604,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18671,7 +19641,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18704,7 +19678,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18737,7 +19715,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18770,7 +19752,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18803,7 +19789,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18836,7 +19826,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18869,7 +19863,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18902,7 +19900,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18935,7 +19937,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -18968,7 +19974,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19001,7 +20011,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19034,7 +20048,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19067,7 +20085,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19100,7 +20122,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19133,7 +20159,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19166,7 +20196,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19199,7 +20233,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19232,7 +20270,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19265,7 +20307,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19298,7 +20344,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19331,7 +20381,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19364,7 +20418,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19397,7 +20455,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19430,7 +20492,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +20529,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19496,7 +20566,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19529,7 +20603,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19562,7 +20640,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19595,7 +20677,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19628,7 +20714,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19661,7 +20751,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19694,7 +20788,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19727,7 +20825,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20862,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19793,7 +20899,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19826,7 +20936,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19859,7 +20973,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19892,7 +21010,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19925,7 +21047,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19958,7 +21084,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19991,7 +21121,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20024,7 +21158,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20057,7 +21195,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +21232,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +21269,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +21306,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +21343,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +21380,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +21417,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20288,7 +21454,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +21491,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +21528,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +21565,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +21602,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +21639,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +21676,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +21713,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +21750,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20585,7 +21787,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +21824,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +21861,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +21898,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +21935,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +21972,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20783,7 +22009,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20816,7 +22046,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20849,7 +22083,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20882,7 +22120,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +22157,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +22194,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +22231,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +22268,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21043,11 +22301,17 @@
         <v>-33945082.70854867</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21076,11 +22340,17 @@
         <v>-33944002.61844867</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +22383,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21142,11 +22416,17 @@
         <v>-33982340.00404868</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21175,11 +22455,17 @@
         <v>-33977332.23264868</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +22498,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21241,11 +22531,17 @@
         <v>-33964998.14904868</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21274,11 +22570,17 @@
         <v>-33977718.37284868</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21307,11 +22609,17 @@
         <v>-33992110.84584868</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21340,11 +22648,17 @@
         <v>-34091122.65844868</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +22687,17 @@
         <v>-34067493.40744868</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21406,11 +22726,17 @@
         <v>-34067795.09044868</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21439,11 +22765,17 @@
         <v>-34053747.39504868</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +22804,17 @@
         <v>-34068883.96554868</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +22843,17 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +22882,17 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>81</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +22921,17 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>81</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +22960,17 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21637,11 +22999,17 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I644" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +23038,17 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I645" t="n">
+        <v>81</v>
+      </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +23077,17 @@
         <v>-33979431.24161617</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>81</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +23116,17 @@
         <v>-33961853.54151617</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +23155,17 @@
         <v>-33966822.03871617</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +23194,17 @@
         <v>-33979996.03861617</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>81</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21835,11 +23233,17 @@
         <v>-34006640.82861616</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +23272,17 @@
         <v>-34037704.01871616</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +23311,17 @@
         <v>-34035090.52181616</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +23350,17 @@
         <v>-34020159.02161616</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +23389,17 @@
         <v>-33969044.20646127</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +23428,17 @@
         <v>-33970644.20646127</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +23467,17 @@
         <v>-33972882.93606127</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +23506,17 @@
         <v>-33961981.66986127</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22099,11 +23545,17 @@
         <v>-33972346.86486127</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22132,11 +23584,17 @@
         <v>-33972104.19196127</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22165,11 +23623,17 @@
         <v>-33986070.93846127</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22198,11 +23662,17 @@
         <v>-33939802.39836127</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +23701,17 @@
         <v>-33940602.01126127</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22264,11 +23740,17 @@
         <v>-33935459.06066127</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +23779,17 @@
         <v>-33936695.15456127</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>81</v>
+      </c>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22330,11 +23818,17 @@
         <v>-33944142.82986128</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22363,11 +23857,17 @@
         <v>-33965449.32656127</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22396,11 +23896,17 @@
         <v>-33976528.22246128</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22429,11 +23935,17 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22462,11 +23974,17 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22495,11 +24013,17 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22528,11 +24052,17 @@
         <v>-34059159.94706128</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22561,11 +24091,17 @@
         <v>-34053967.82016128</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22594,11 +24130,17 @@
         <v>-34053867.79006127</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22631,7 +24173,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22660,11 +24206,17 @@
         <v>-34084388.03456128</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22697,7 +24249,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -22730,7 +24286,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22763,7 +24323,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -22796,7 +24360,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -22829,7 +24397,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -22862,7 +24434,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -22895,7 +24471,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -22928,7 +24508,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -22961,7 +24545,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -22994,7 +24582,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23027,7 +24619,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23060,7 +24656,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23093,7 +24693,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23126,7 +24730,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23159,7 +24767,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23192,7 +24804,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +24841,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +24874,17 @@
         <v>-34068036.34884153</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,11 +24913,17 @@
         <v>-34072075.28164153</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23320,11 +24952,17 @@
         <v>-34056877.38424153</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23353,11 +24991,17 @@
         <v>-34041826.61354153</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23386,11 +25030,17 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23419,11 +25069,17 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +25108,17 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +25147,17 @@
         <v>-34043455.06074153</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,15 +25186,17 @@
         <v>-34041739.06074153</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="J701" t="n">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23555,17 +25225,15 @@
         <v>-34022359.42264153</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>80.5</v>
       </c>
-      <c r="J702" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L702" t="n">
@@ -23596,17 +25264,15 @@
         <v>-34022359.42264153</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I703" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J703" t="n">
-        <v>80.40000000000001</v>
-      </c>
+      <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L703" t="n">
@@ -23637,15 +25303,17 @@
         <v>-34019752.01524153</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I704" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J704" t="n">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23674,15 +25342,15 @@
         <v>-34019752.01524153</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>81</v>
+      </c>
+      <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L705" t="n">
@@ -23713,15 +25381,15 @@
         <v>-34047112.66294153</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>81</v>
+      </c>
+      <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L706" t="n">
@@ -23752,11 +25420,17 @@
         <v>-34057230.07024153</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23785,11 +25459,17 @@
         <v>-34048273.75184153</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23818,11 +25498,17 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>81</v>
+      </c>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23851,11 +25537,17 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23884,11 +25576,17 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23917,11 +25615,17 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23950,7 +25654,7 @@
         <v>-34108219.73414153</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I713" t="n">
         <v>80.5</v>
@@ -23958,7 +25662,7 @@
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L713" t="n">
@@ -23989,7 +25693,7 @@
         <v>-34108117.38344153</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I714" t="n">
         <v>80.3</v>
@@ -24028,7 +25732,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I715" t="n">
         <v>80.40000000000001</v>
@@ -24067,7 +25771,7 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I716" t="n">
         <v>80.09999999999999</v>
@@ -24106,7 +25810,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I717" t="n">
         <v>80.09999999999999</v>
@@ -24145,7 +25849,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718" t="n">
         <v>80.59999999999999</v>
@@ -24184,7 +25888,7 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I719" t="n">
         <v>80.59999999999999</v>
@@ -24223,9 +25927,11 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24260,9 +25966,11 @@
         <v>-34156329.88724153</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24297,7 +26005,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I722" t="n">
         <v>80.3</v>
@@ -24336,7 +26044,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I723" t="n">
         <v>80.2</v>
@@ -24375,7 +26083,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I724" t="n">
         <v>80.2</v>
@@ -24414,7 +26122,7 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I725" t="n">
         <v>80.2</v>
@@ -24453,9 +26161,11 @@
         <v>-34161681.38274153</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24490,9 +26200,11 @@
         <v>-34161668.44384153</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr">
         <is>
@@ -24527,9 +26239,11 @@
         <v>-34136800.22024153</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
@@ -24564,9 +26278,11 @@
         <v>-34136800.22024153</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24601,9 +26317,11 @@
         <v>-34138167.36834154</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -24638,9 +26356,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24675,9 +26395,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>80</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24712,9 +26434,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>80</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -24749,9 +26473,11 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>80</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -24786,9 +26512,11 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr">
         <is>
@@ -24823,9 +26551,11 @@
         <v>-34363447.60974154</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr">
         <is>
@@ -24860,9 +26590,11 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr">
         <is>
@@ -24897,9 +26629,11 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -24934,9 +26668,11 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -24971,9 +26707,11 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25008,9 +26746,11 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25045,7 +26785,7 @@
         <v>-34353718.74044154</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I742" t="n">
         <v>80.3</v>
@@ -25084,7 +26824,7 @@
         <v>-34309040.22224154</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>80.5</v>
@@ -25123,11 +26863,9 @@
         <v>-34309040.22224154</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25162,7 +26900,7 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>80.7</v>
@@ -25201,7 +26939,7 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>80</v>
@@ -25240,7 +26978,7 @@
         <v>-34273490.12214154</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>80</v>
@@ -25279,9 +27017,11 @@
         <v>-34274028.12224154</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25316,9 +27056,11 @@
         <v>-34296044.76254154</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>80</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25353,7 +27095,7 @@
         <v>-34286444.76254154</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>79.90000000000001</v>
@@ -25392,7 +27134,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>80.09999999999999</v>
@@ -25431,7 +27173,7 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>80.2</v>
@@ -25470,7 +27212,7 @@
         <v>-34220339.83974154</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>80.2</v>
@@ -25509,7 +27251,7 @@
         <v>-34166217.93639582</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>80.59999999999999</v>
@@ -25548,7 +27290,7 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>80.7</v>
@@ -25587,9 +27329,11 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -25624,9 +27368,11 @@
         <v>-34155670.38198914</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -25661,9 +27407,11 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -25698,7 +27446,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>80.3</v>
@@ -25737,7 +27485,7 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>80.3</v>
@@ -25776,7 +27524,7 @@
         <v>-34168540.74488913</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I761" t="n">
         <v>80.3</v>
@@ -25815,7 +27563,7 @@
         <v>-34169915.26288913</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I762" t="n">
         <v>80.2</v>
@@ -25854,7 +27602,7 @@
         <v>-34169905.26288913</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I763" t="n">
         <v>80.09999999999999</v>
@@ -25893,7 +27641,7 @@
         <v>-34171599.56318913</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I764" t="n">
         <v>80.40000000000001</v>
@@ -25932,7 +27680,7 @@
         <v>-34171589.56318913</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I765" t="n">
         <v>79.90000000000001</v>
@@ -25971,7 +27719,7 @@
         <v>-34181907.22818913</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I766" t="n">
         <v>80.3</v>
@@ -26010,7 +27758,7 @@
         <v>-34178171.23815178</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>79.90000000000001</v>
@@ -26049,7 +27797,7 @@
         <v>-34180514.26865178</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>80.3</v>
@@ -26088,7 +27836,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I769" t="n">
         <v>79.90000000000001</v>
@@ -26127,7 +27875,7 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I770" t="n">
         <v>80</v>
@@ -26166,7 +27914,7 @@
         <v>-34198740.40835179</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I771" t="n">
         <v>80</v>
@@ -26205,9 +27953,11 @@
         <v>-34190513.16495179</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26242,9 +27992,11 @@
         <v>-34200606.23585179</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26279,7 +28031,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I774" t="n">
         <v>79.8</v>
@@ -26318,7 +28070,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I775" t="n">
         <v>80</v>
@@ -26357,7 +28109,7 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I776" t="n">
         <v>80</v>
@@ -26396,7 +28148,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I777" t="n">
         <v>80</v>
@@ -26435,7 +28187,7 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I778" t="n">
         <v>80.09999999999999</v>
@@ -26474,7 +28226,7 @@
         <v>-34190427.86175179</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I779" t="n">
         <v>80.09999999999999</v>
@@ -26513,7 +28265,7 @@
         <v>-34176020.84554917</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I780" t="n">
         <v>79.7</v>
@@ -26552,7 +28304,7 @@
         <v>-34192862.31764916</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I781" t="n">
         <v>80.09999999999999</v>
@@ -26591,7 +28343,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I782" t="n">
         <v>79.8</v>
@@ -26630,7 +28382,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I783" t="n">
         <v>79.90000000000001</v>
@@ -26669,7 +28421,7 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I784" t="n">
         <v>79.90000000000001</v>
@@ -26708,7 +28460,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I785" t="n">
         <v>79.90000000000001</v>
@@ -26747,7 +28499,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I786" t="n">
         <v>80.09999999999999</v>
@@ -26786,7 +28538,7 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I787" t="n">
         <v>80.09999999999999</v>
@@ -26825,7 +28577,7 @@
         <v>-34139934.04064916</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I788" t="n">
         <v>80.09999999999999</v>
@@ -26864,7 +28616,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I789" t="n">
         <v>80.2</v>
@@ -26903,7 +28655,7 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I790" t="n">
         <v>80.40000000000001</v>
@@ -26942,7 +28694,7 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I791" t="n">
         <v>80.40000000000001</v>
@@ -26981,11 +28733,9 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
-      </c>
-      <c r="I792" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27020,11 +28770,9 @@
         <v>-34154393.31414916</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27059,7 +28807,7 @@
         <v>-34219587.76784916</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I794" t="n">
         <v>80</v>
@@ -27098,7 +28846,7 @@
         <v>-34199329.14684916</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I795" t="n">
         <v>79.90000000000001</v>
@@ -27137,7 +28885,7 @@
         <v>-34219329.14684916</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I796" t="n">
         <v>80.2</v>
@@ -27176,7 +28924,7 @@
         <v>-34219070.52584916</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I797" t="n">
         <v>80</v>
@@ -27215,7 +28963,7 @@
         <v>-34218494.30174916</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I798" t="n">
         <v>80.2</v>
@@ -27254,7 +29002,7 @@
         <v>-34218752.92274916</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I799" t="n">
         <v>80.40000000000001</v>
@@ -27293,7 +29041,7 @@
         <v>-34221453.54614916</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I800" t="n">
         <v>80.3</v>
@@ -27332,7 +29080,7 @@
         <v>-34220110.49854916</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I801" t="n">
         <v>80.2</v>
@@ -27371,7 +29119,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I802" t="n">
         <v>80.3</v>
@@ -27410,7 +29158,7 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I803" t="n">
         <v>80.40000000000001</v>
@@ -27449,7 +29197,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I804" t="n">
         <v>80.40000000000001</v>
@@ -27488,7 +29236,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I805" t="n">
         <v>80.09999999999999</v>
@@ -27527,7 +29275,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I806" t="n">
         <v>80.09999999999999</v>
@@ -27566,7 +29314,7 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I807" t="n">
         <v>80.09999999999999</v>
@@ -27605,7 +29353,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I808" t="n">
         <v>80.09999999999999</v>
@@ -27644,7 +29392,7 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>80.40000000000001</v>
@@ -27683,7 +29431,7 @@
         <v>-34212831.10076132</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I810" t="n">
         <v>80.40000000000001</v>
@@ -27722,7 +29470,7 @@
         <v>-34211961.10076132</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I811" t="n">
         <v>80.09999999999999</v>
@@ -27761,7 +29509,7 @@
         <v>-34716770.18596131</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I812" t="n">
         <v>80.2</v>
@@ -27800,7 +29548,7 @@
         <v>-34718477.90626131</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>80.09999999999999</v>
@@ -27839,7 +29587,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I814" t="n">
         <v>79.90000000000001</v>
@@ -27878,7 +29626,7 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I815" t="n">
         <v>80.09999999999999</v>
@@ -27917,7 +29665,7 @@
         <v>-34678495.57226131</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I816" t="n">
         <v>80.09999999999999</v>
@@ -27956,7 +29704,7 @@
         <v>-34689488.82356131</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I817" t="n">
         <v>80.40000000000001</v>
@@ -27995,7 +29743,7 @@
         <v>-34569279.54586131</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I818" t="n">
         <v>80</v>
@@ -28034,7 +29782,7 @@
         <v>-34580492.51956131</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I819" t="n">
         <v>80.3</v>
@@ -28073,7 +29821,7 @@
         <v>-34561412.37012171</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I820" t="n">
         <v>80.09999999999999</v>
@@ -28112,7 +29860,7 @@
         <v>-34567354.15542171</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I821" t="n">
         <v>80.3</v>
@@ -28151,7 +29899,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I822" t="n">
         <v>80.09999999999999</v>
@@ -28190,7 +29938,7 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="n">
         <v>80.40000000000001</v>
@@ -28229,7 +29977,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>80.40000000000001</v>
@@ -28268,7 +30016,7 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>80.3</v>
@@ -28307,7 +30055,7 @@
         <v>-34557498.77582171</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>80.3</v>
@@ -28346,7 +30094,7 @@
         <v>-34522296.68052171</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>80.59999999999999</v>
@@ -28385,7 +30133,7 @@
         <v>-34501968.63082171</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I828" t="n">
         <v>80.7</v>
@@ -28424,7 +30172,7 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>81</v>
@@ -28463,7 +30211,7 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>81.3</v>
@@ -28613,9 +30361,11 @@
         <v>-34474626.53732171</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28650,9 +30400,11 @@
         <v>-34487527.43782171</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28687,7 +30439,7 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>81.2</v>
@@ -28726,7 +30478,7 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>81</v>
@@ -28765,7 +30517,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>81</v>
@@ -28804,7 +30556,7 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>80.90000000000001</v>
@@ -28843,7 +30595,7 @@
         <v>-34495237.90962171</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>80.90000000000001</v>
@@ -28882,7 +30634,7 @@
         <v>-34555274.70492171</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>81.59999999999999</v>
@@ -28921,11 +30673,9 @@
         <v>-34555694.70492171</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -28960,11 +30710,9 @@
         <v>-34558905.32582171</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28999,7 +30747,7 @@
         <v>-34489518.54846618</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>81.2</v>
@@ -29038,7 +30786,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>81.40000000000001</v>
@@ -29077,7 +30825,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>80.7</v>
@@ -29116,7 +30864,7 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>80.7</v>
@@ -29155,7 +30903,7 @@
         <v>-34483926.92426619</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>80.7</v>
@@ -29194,9 +30942,11 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -29231,9 +30981,11 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29268,9 +31020,11 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -29305,9 +31059,11 @@
         <v>-34483890.19323719</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -29342,9 +31098,11 @@
         <v>-34504314.91763718</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>81.7</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -29379,9 +31137,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
@@ -29416,9 +31176,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>81</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29453,9 +31215,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>81</v>
+      </c>
       <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
@@ -29490,9 +31254,11 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>81</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -29527,9 +31293,11 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29564,7 +31332,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>81.09999999999999</v>
@@ -29603,7 +31371,7 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I860" t="n">
         <v>80.8</v>
@@ -29642,9 +31410,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -29679,9 +31449,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29716,9 +31488,11 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29753,7 +31527,7 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>80.90000000000001</v>
@@ -29792,7 +31566,7 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>80.90000000000001</v>
@@ -29831,7 +31605,7 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>81</v>
@@ -29870,9 +31644,11 @@
         <v>-34347491.05713719</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>81</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29907,9 +31683,11 @@
         <v>-34333218.05833719</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29944,9 +31722,11 @@
         <v>-34343163.56513719</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -29981,9 +31761,11 @@
         <v>-34323163.56513719</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
@@ -30018,9 +31800,11 @@
         <v>-34355017.9658372</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
@@ -30055,9 +31839,11 @@
         <v>-31401423.24193719</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
@@ -30092,9 +31878,11 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -30129,9 +31917,11 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -30166,9 +31956,11 @@
         <v>-34073313.7908372</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
@@ -30203,9 +31995,11 @@
         <v>-34073303.7908372</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
@@ -30240,9 +32034,11 @@
         <v>-35473303.7908372</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -30277,9 +32073,11 @@
         <v>-35469629.5008372</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -30314,9 +32112,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>81.5</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -30351,9 +32151,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>81.8</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -31572,9 +33374,11 @@
         <v>-38153505.37522504</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>82.5</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -31683,9 +33487,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>82.40000000000001</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -31720,9 +33526,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31757,9 +33565,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31794,9 +33604,11 @@
         <v>-38291264.14092503</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -32090,9 +33902,11 @@
         <v>-38279614.43423762</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>82.40000000000001</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -32105,6 +33919,6 @@
       <c r="M927" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest XLM.xlsx
+++ b/BackTest/2019-11-02 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>9045082.263020758</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9645268.431330519</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>9560097.196507268</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7265065.745162941</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4798183.476347639</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-9098911.376147639</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-8806025.741924118</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-8903784.213724118</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4391615.617024119</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4379556.805124119</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4481647.543824119</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1459063.598324119</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>1502662.083975882</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1502485.431475882</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>4219882.417075882</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1724078.649275882</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2685436.606441057</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -10846,17 +10846,11 @@
         <v>-23336626.77975896</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10885,17 +10879,11 @@
         <v>-23336626.77975896</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10924,17 +10912,11 @@
         <v>-23347608.07025896</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10963,17 +10945,11 @@
         <v>-23378423.91265896</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11002,17 +10978,11 @@
         <v>-23322428.92515896</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11041,17 +11011,11 @@
         <v>-23381240.66615896</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11080,17 +11044,11 @@
         <v>-23358531.15005895</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11119,17 +11077,11 @@
         <v>-23358531.15005895</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11158,17 +11110,11 @@
         <v>-23347920.91705896</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11197,17 +11143,11 @@
         <v>-23335420.91705896</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11314,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11351,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11388,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11425,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11462,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11495,15 +11407,11 @@
         <v>-23299847.22775896</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11532,15 +11440,11 @@
         <v>-23301589.93105896</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11569,15 +11473,11 @@
         <v>-23371068.53005896</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11606,15 +11506,11 @@
         <v>-23356684.32065896</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11643,15 +11539,11 @@
         <v>-23409509.20655896</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11684,11 +11576,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11721,11 +11609,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11758,11 +11642,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11795,11 +11675,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11832,11 +11708,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11869,11 +11741,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11906,11 +11774,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11943,11 +11807,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11976,17 +11836,11 @@
         <v>-23408618.85325896</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12019,11 +11873,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12056,11 +11906,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +11939,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12130,11 +11972,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12167,11 +12005,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12204,11 +12038,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12241,11 +12071,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12278,11 +12104,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12315,11 +12137,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12352,11 +12170,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12389,11 +12203,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12426,11 +12236,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12459,15 +12265,11 @@
         <v>-23176511.46205896</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12500,11 +12302,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12537,11 +12335,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12574,11 +12368,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12611,11 +12401,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +12434,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12685,11 +12467,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +12500,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12759,11 +12533,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12796,11 +12566,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12833,11 +12599,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12870,11 +12632,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12907,11 +12665,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12944,11 +12698,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12981,11 +12731,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13018,11 +12764,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13055,11 +12797,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +12830,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13166,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13203,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13240,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13277,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13314,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13351,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13388,11 +13094,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13425,11 +13127,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13462,11 +13160,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13499,11 +13193,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13536,11 +13226,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13573,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13610,11 +13292,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13647,11 +13325,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13358,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13721,11 +13391,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13758,11 +13424,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13795,11 +13457,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13832,11 +13490,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13869,11 +13523,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13906,11 +13556,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13943,11 +13589,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +13622,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +13655,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14054,11 +13688,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14091,11 +13721,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14128,11 +13754,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +13787,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14202,11 +13820,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14239,11 +13853,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14276,11 +13886,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14313,11 +13919,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14350,11 +13952,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14387,11 +13985,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14424,11 +14018,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14461,11 +14051,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14498,11 +14084,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14535,11 +14117,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14572,11 +14150,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14609,11 +14183,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +14216,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +14249,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +14282,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +14315,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +14348,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +14381,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +14414,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +14447,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +14480,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +14513,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +14546,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +14579,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +14612,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +14645,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +14678,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +14711,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +14744,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +14777,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +14810,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +14843,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +14876,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +14909,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +14942,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +14975,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +15008,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +15041,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +15074,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +15107,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +15140,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +15173,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +15206,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +15239,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +15272,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +15305,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +15338,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +15371,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +15404,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +15437,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +15470,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +15503,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +15536,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +15569,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +15602,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +15635,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +15668,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +15701,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +15734,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +15767,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +15800,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +15833,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +15866,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +15899,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +15932,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +15965,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16644,11 +15998,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +16031,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +16064,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +16097,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +16130,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +16163,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16866,11 +16196,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16903,11 +16229,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +16262,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +16295,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +16328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +16361,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +16394,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17125,11 +16427,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17162,11 +16460,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17199,11 +16493,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17236,11 +16526,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17269,15 +16555,11 @@
         <v>-37846244.95242684</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +16592,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +16625,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17384,11 +16658,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17421,11 +16691,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17458,11 +16724,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17495,11 +16757,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +16790,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +16823,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17606,11 +16856,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17643,11 +16889,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17680,11 +16922,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17717,11 +16955,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17754,11 +16988,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17791,11 +17021,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17828,11 +17054,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17865,11 +17087,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17902,11 +17120,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17939,11 +17153,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +17186,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18013,11 +17219,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18050,11 +17252,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18087,11 +17285,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18124,11 +17318,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18161,11 +17351,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18198,11 +17384,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18235,11 +17417,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18272,11 +17450,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18309,11 +17483,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18346,11 +17516,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18383,11 +17549,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18420,11 +17582,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18457,11 +17615,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18494,11 +17648,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18531,11 +17681,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18568,11 +17714,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18605,11 +17747,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18642,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18679,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18716,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18753,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18790,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18827,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18864,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +18011,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18938,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18975,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19012,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19049,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19086,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19123,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19160,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19234,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19271,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19308,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19345,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19382,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19419,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19456,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19493,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19530,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19567,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19604,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19641,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19678,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19715,11 +18737,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19752,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19789,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19826,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19863,11 +18869,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19900,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19937,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19974,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20011,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20048,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20085,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20122,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20159,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20196,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20233,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20270,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20307,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20344,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20381,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20455,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20492,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20529,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20566,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20603,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20640,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20677,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20714,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20751,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20788,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20825,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20862,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20899,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20936,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20973,11 +19859,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21010,11 +19892,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21047,11 +19925,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21084,11 +19958,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21121,11 +19991,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21158,11 +20024,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21195,11 +20057,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21232,11 +20090,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21269,11 +20123,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21306,11 +20156,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21343,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21380,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21417,11 +20255,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21454,11 +20288,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21491,11 +20321,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21528,11 +20354,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21561,15 +20383,11 @@
         <v>-34117686.18044867</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21598,15 +20416,11 @@
         <v>-33909751.73994868</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21635,15 +20449,11 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21672,15 +20482,11 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21709,15 +20515,11 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21746,15 +20548,11 @@
         <v>-33917199.30754867</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21787,11 +20585,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21824,11 +20618,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21861,11 +20651,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21898,11 +20684,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21935,11 +20717,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21972,11 +20750,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22005,15 +20779,11 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22042,15 +20812,11 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22083,11 +20849,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22120,11 +20882,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22153,15 +20911,11 @@
         <v>-33937567.58074868</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22190,15 +20944,11 @@
         <v>-33937597.58074868</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22231,11 +20981,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22264,15 +21010,11 @@
         <v>-33944420.42264868</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22301,17 +21043,11 @@
         <v>-33945082.70854867</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>81.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22340,17 +21076,11 @@
         <v>-33944002.61844867</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22379,15 +21109,11 @@
         <v>-33956477.70414867</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22416,17 +21142,11 @@
         <v>-33982340.00404868</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22455,17 +21175,11 @@
         <v>-33977332.23264868</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>81.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22498,11 +21212,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22531,17 +21241,11 @@
         <v>-33964998.14904868</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22570,17 +21274,11 @@
         <v>-33977718.37284868</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>81.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22609,17 +21307,11 @@
         <v>-33992110.84584868</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>81.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22648,17 +21340,11 @@
         <v>-34091122.65844868</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>81.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22687,17 +21373,11 @@
         <v>-34067493.40744868</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
-      </c>
-      <c r="I636" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22726,17 +21406,11 @@
         <v>-34067795.09044868</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
-      </c>
-      <c r="I637" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22765,17 +21439,11 @@
         <v>-34053747.39504868</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22804,17 +21472,11 @@
         <v>-34068883.96554868</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22843,17 +21505,11 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
-      </c>
-      <c r="I640" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22882,17 +21538,11 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
-      </c>
-      <c r="I641" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22921,17 +21571,11 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
-      </c>
-      <c r="I642" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22960,17 +21604,11 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
-      </c>
-      <c r="I643" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22999,17 +21637,11 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
-      </c>
-      <c r="I644" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23038,17 +21670,11 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
-      </c>
-      <c r="I645" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23077,17 +21703,11 @@
         <v>-33979431.24161617</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23116,17 +21736,11 @@
         <v>-33961853.54151617</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23155,17 +21769,11 @@
         <v>-33966822.03871617</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23194,17 +21802,11 @@
         <v>-33979996.03861617</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23233,17 +21835,11 @@
         <v>-34006640.82861616</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23272,17 +21868,11 @@
         <v>-34037704.01871616</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23311,17 +21901,11 @@
         <v>-34035090.52181616</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23350,17 +21934,11 @@
         <v>-34020159.02161616</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23389,17 +21967,11 @@
         <v>-33969044.20646127</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23428,17 +22000,11 @@
         <v>-33970644.20646127</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23467,17 +22033,11 @@
         <v>-33972882.93606127</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23506,17 +22066,11 @@
         <v>-33961981.66986127</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23545,17 +22099,11 @@
         <v>-33972346.86486127</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23584,17 +22132,11 @@
         <v>-33972104.19196127</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23623,17 +22165,11 @@
         <v>-33986070.93846127</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23662,17 +22198,11 @@
         <v>-33939802.39836127</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23701,17 +22231,11 @@
         <v>-33940602.01126127</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23740,17 +22264,11 @@
         <v>-33935459.06066127</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23779,17 +22297,11 @@
         <v>-33936695.15456127</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23818,17 +22330,11 @@
         <v>-33944142.82986128</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23865,7 +22371,7 @@
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L666" t="n">
@@ -24206,11 +22712,9 @@
         <v>-34084388.03456128</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24874,11 +23378,9 @@
         <v>-34068036.34884153</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24913,11 +23415,9 @@
         <v>-34072075.28164153</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24952,11 +23452,9 @@
         <v>-34056877.38424153</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -24991,11 +23489,9 @@
         <v>-34041826.61354153</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -25030,11 +23526,9 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -25069,11 +23563,9 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -25108,11 +23600,9 @@
         <v>-34042434.61354153</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -25147,11 +23637,9 @@
         <v>-34043455.06074153</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr">
         <is>
@@ -25186,11 +23674,9 @@
         <v>-34041739.06074153</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -25225,11 +23711,9 @@
         <v>-34022359.42264153</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -25264,11 +23748,9 @@
         <v>-34022359.42264153</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25303,11 +23785,9 @@
         <v>-34019752.01524153</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr">
         <is>
@@ -25342,11 +23822,9 @@
         <v>-34019752.01524153</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr">
         <is>
@@ -25381,11 +23859,9 @@
         <v>-34047112.66294153</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -25420,11 +23896,9 @@
         <v>-34057230.07024153</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr">
         <is>
@@ -25459,11 +23933,9 @@
         <v>-34048273.75184153</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -25498,11 +23970,9 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -25537,11 +24007,9 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -25576,11 +24044,9 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -25615,11 +24081,9 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -25654,11 +24118,9 @@
         <v>-34108219.73414153</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -25693,11 +24155,9 @@
         <v>-34108117.38344153</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -25732,11 +24192,9 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -25771,11 +24229,9 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -25810,11 +24266,9 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -25849,11 +24303,9 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25888,11 +24340,9 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25927,11 +24377,9 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -25966,11 +24414,9 @@
         <v>-34156329.88724153</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -26005,11 +24451,9 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -26044,11 +24488,9 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -26083,11 +24525,9 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -26122,11 +24562,9 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -26161,11 +24599,9 @@
         <v>-34161681.38274153</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -26278,11 +24714,9 @@
         <v>-34136800.22024153</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -26317,11 +24751,9 @@
         <v>-34138167.36834154</v>
       </c>
       <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr">
         <is>
@@ -26356,11 +24788,9 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -26395,11 +24825,9 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -26434,11 +24862,9 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -26473,11 +24899,9 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -26629,11 +25053,9 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -26668,11 +25090,9 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H739" t="n">
-        <v>1</v>
-      </c>
-      <c r="I739" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -26707,11 +25127,9 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -26746,11 +25164,9 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H741" t="n">
-        <v>1</v>
-      </c>
-      <c r="I741" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -26785,11 +25201,9 @@
         <v>-34353718.74044154</v>
       </c>
       <c r="H742" t="n">
-        <v>1</v>
-      </c>
-      <c r="I742" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -26824,11 +25238,9 @@
         <v>-34309040.22224154</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>80.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -26900,11 +25312,9 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26939,11 +25349,9 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -26978,11 +25386,9 @@
         <v>-34273490.12214154</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -27017,11 +25423,9 @@
         <v>-34274028.12224154</v>
       </c>
       <c r="H748" t="n">
-        <v>1</v>
-      </c>
-      <c r="I748" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -27056,11 +25460,9 @@
         <v>-34296044.76254154</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -27134,11 +25536,9 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -27173,11 +25573,9 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -27212,11 +25610,9 @@
         <v>-34220339.83974154</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -27251,11 +25647,9 @@
         <v>-34166217.93639582</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -27290,11 +25684,9 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
@@ -27329,11 +25721,9 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -27368,11 +25758,9 @@
         <v>-34155670.38198914</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -27407,11 +25795,9 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -27446,11 +25832,9 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -27485,11 +25869,9 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -27524,11 +25906,9 @@
         <v>-34168540.74488913</v>
       </c>
       <c r="H761" t="n">
-        <v>1</v>
-      </c>
-      <c r="I761" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -27563,11 +25943,9 @@
         <v>-34169915.26288913</v>
       </c>
       <c r="H762" t="n">
-        <v>1</v>
-      </c>
-      <c r="I762" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -27602,11 +25980,9 @@
         <v>-34169905.26288913</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -27641,11 +26017,9 @@
         <v>-34171599.56318913</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -27680,11 +26054,9 @@
         <v>-34171589.56318913</v>
       </c>
       <c r="H765" t="n">
-        <v>1</v>
-      </c>
-      <c r="I765" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -27719,11 +26091,9 @@
         <v>-34181907.22818913</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -27758,11 +26128,9 @@
         <v>-34178171.23815178</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -27797,11 +26165,9 @@
         <v>-34180514.26865178</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -27836,11 +26202,9 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -27875,11 +26239,9 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -27914,11 +26276,9 @@
         <v>-34198740.40835179</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -27953,11 +26313,9 @@
         <v>-34190513.16495179</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -27992,11 +26350,9 @@
         <v>-34200606.23585179</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -28031,11 +26387,9 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -28070,11 +26424,9 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -28109,11 +26461,9 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -28148,11 +26498,9 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
-      </c>
-      <c r="I777" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -28187,11 +26535,9 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
-      </c>
-      <c r="I778" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -28226,11 +26572,9 @@
         <v>-34190427.86175179</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
-      </c>
-      <c r="I779" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -28265,11 +26609,9 @@
         <v>-34176020.84554917</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
-      </c>
-      <c r="I780" t="n">
-        <v>79.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -28304,11 +26646,9 @@
         <v>-34192862.31764916</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -28343,11 +26683,9 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
-      </c>
-      <c r="I782" t="n">
-        <v>79.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -28382,11 +26720,9 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -28421,11 +26757,9 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -28460,11 +26794,9 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -28499,11 +26831,9 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -28538,11 +26868,9 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -28577,11 +26905,9 @@
         <v>-34139934.04064916</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -28616,11 +26942,9 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -28655,11 +26979,9 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -28694,11 +27016,9 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -28807,11 +27127,9 @@
         <v>-34219587.76784916</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
-      </c>
-      <c r="I794" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -28846,11 +27164,9 @@
         <v>-34199329.14684916</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
-      </c>
-      <c r="I795" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -28885,11 +27201,9 @@
         <v>-34219329.14684916</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
-      </c>
-      <c r="I796" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -28924,11 +27238,9 @@
         <v>-34219070.52584916</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
-      </c>
-      <c r="I797" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -28963,11 +27275,9 @@
         <v>-34218494.30174916</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
-      </c>
-      <c r="I798" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -29002,11 +27312,9 @@
         <v>-34218752.92274916</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
-      </c>
-      <c r="I799" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -29041,11 +27349,9 @@
         <v>-34221453.54614916</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
-      </c>
-      <c r="I800" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -29080,11 +27386,9 @@
         <v>-34220110.49854916</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
-      </c>
-      <c r="I801" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -29119,11 +27423,9 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
-      </c>
-      <c r="I802" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -29158,11 +27460,9 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -29197,11 +27497,9 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
-      </c>
-      <c r="I804" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -29236,11 +27534,9 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H805" t="n">
-        <v>1</v>
-      </c>
-      <c r="I805" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -29275,11 +27571,9 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -29314,11 +27608,9 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -29353,11 +27645,9 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -29392,11 +27682,9 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H809" t="n">
-        <v>1</v>
-      </c>
-      <c r="I809" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -29431,11 +27719,9 @@
         <v>-34212831.10076132</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -29470,11 +27756,9 @@
         <v>-34211961.10076132</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -29509,11 +27793,9 @@
         <v>-34716770.18596131</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -29548,11 +27830,9 @@
         <v>-34718477.90626131</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -29587,11 +27867,9 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>79.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -29626,11 +27904,9 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -29665,11 +27941,9 @@
         <v>-34678495.57226131</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -29704,11 +27978,9 @@
         <v>-34689488.82356131</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -29743,11 +28015,9 @@
         <v>-34569279.54586131</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>80</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -29782,11 +28052,9 @@
         <v>-34580492.51956131</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -29821,11 +28089,9 @@
         <v>-34561412.37012171</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -29860,11 +28126,9 @@
         <v>-34567354.15542171</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -29899,11 +28163,9 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>80.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -29938,11 +28200,9 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -29977,11 +28237,9 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -30016,11 +28274,9 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -30055,11 +28311,9 @@
         <v>-34557498.77582171</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>80.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -30094,11 +28348,9 @@
         <v>-34522296.68052171</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>80.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -30133,11 +28385,9 @@
         <v>-34501968.63082171</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -30172,11 +28422,9 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -30211,11 +28459,9 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -30361,11 +28607,9 @@
         <v>-34474626.53732171</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>81.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -30400,11 +28644,9 @@
         <v>-34487527.43782171</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -30439,11 +28681,9 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>81.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -30478,11 +28718,9 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -30517,11 +28755,9 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -30556,11 +28792,9 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -30595,11 +28829,9 @@
         <v>-34495237.90962171</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -30634,11 +28866,9 @@
         <v>-34555274.70492171</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -30747,11 +28977,9 @@
         <v>-34489518.54846618</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>81.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -30786,11 +29014,9 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30825,11 +29051,9 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30864,11 +29088,9 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -30903,11 +29125,9 @@
         <v>-34483926.92426619</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>80.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -30942,11 +29162,9 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>81.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -30981,11 +29199,9 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -31020,20 +29236,16 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
+      <c r="L851" t="inlineStr"/>
       <c r="M851" t="inlineStr"/>
     </row>
     <row r="852">
@@ -31059,17 +29271,11 @@
         <v>-34483890.19323719</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -31098,17 +29304,11 @@
         <v>-34504314.91763718</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>81.7</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -31137,17 +29337,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
-      </c>
-      <c r="I854" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -31176,17 +29370,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -31215,17 +29403,11 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H856" t="n">
-        <v>1</v>
-      </c>
-      <c r="I856" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -31254,17 +29436,11 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -31293,17 +29469,11 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -31332,17 +29502,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>81.09999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -31371,17 +29535,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -31410,17 +29568,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -31449,17 +29601,11 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -31488,17 +29634,11 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>80.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K863" t="inlineStr"/>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -31527,17 +29667,11 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K864" t="inlineStr"/>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -31566,17 +29700,11 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K865" t="inlineStr"/>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -31605,17 +29733,11 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K866" t="inlineStr"/>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -31644,17 +29766,11 @@
         <v>-34347491.05713719</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K867" t="inlineStr"/>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -31683,17 +29799,11 @@
         <v>-34333218.05833719</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K868" t="inlineStr"/>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -31722,17 +29832,11 @@
         <v>-34343163.56513719</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>81.59999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K869" t="inlineStr"/>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -31761,17 +29865,11 @@
         <v>-34323163.56513719</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>80.90000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K870" t="inlineStr"/>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -31800,17 +29898,11 @@
         <v>-34355017.9658372</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K871" t="inlineStr"/>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -31839,17 +29931,11 @@
         <v>-31401423.24193719</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K872" t="inlineStr"/>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -31878,17 +29964,11 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K873" t="inlineStr"/>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -31917,17 +29997,11 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>81.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K874" t="inlineStr"/>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -31956,17 +30030,11 @@
         <v>-34073313.7908372</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>81.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K875" t="inlineStr"/>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -31995,17 +30063,11 @@
         <v>-34073303.7908372</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>81.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K876" t="inlineStr"/>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -32034,17 +30096,11 @@
         <v>-35473303.7908372</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K877" t="inlineStr"/>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -32073,17 +30129,11 @@
         <v>-35469629.5008372</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>81.40000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -32112,17 +30162,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>81.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K879" t="inlineStr"/>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -32151,17 +30195,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>81.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K880" t="inlineStr"/>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -32190,15 +30228,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K881" t="inlineStr"/>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -32227,15 +30261,11 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K882" t="inlineStr"/>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -32268,11 +30298,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K883" t="inlineStr"/>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -32305,11 +30331,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K884" t="inlineStr"/>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -32342,11 +30364,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K885" t="inlineStr"/>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -32379,11 +30397,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K886" t="inlineStr"/>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -32416,11 +30430,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K887" t="inlineStr"/>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -32453,11 +30463,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K888" t="inlineStr"/>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -32490,11 +30496,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K889" t="inlineStr"/>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -32527,11 +30529,7 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K890" t="inlineStr"/>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -32564,11 +30562,7 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K891" t="inlineStr"/>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -32601,11 +30595,7 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K892" t="inlineStr"/>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -32638,11 +30628,7 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K893" t="inlineStr"/>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -32675,11 +30661,7 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K894" t="inlineStr"/>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -32712,11 +30694,7 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K895" t="inlineStr"/>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -32749,11 +30727,7 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K896" t="inlineStr"/>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -32786,11 +30760,7 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K897" t="inlineStr"/>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -32823,11 +30793,7 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K898" t="inlineStr"/>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -32860,11 +30826,7 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K899" t="inlineStr"/>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -32897,11 +30859,7 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K900" t="inlineStr"/>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -32934,11 +30892,7 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K901" t="inlineStr"/>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -32971,11 +30925,7 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K902" t="inlineStr"/>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -33008,11 +30958,7 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K903" t="inlineStr"/>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -33045,11 +30991,7 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K904" t="inlineStr"/>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -33082,11 +31024,7 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K905" t="inlineStr"/>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -33119,11 +31057,7 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K906" t="inlineStr"/>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -33156,11 +31090,7 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K907" t="inlineStr"/>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -33193,11 +31123,7 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K908" t="inlineStr"/>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -33230,11 +31156,7 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K909" t="inlineStr"/>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -33267,11 +31189,7 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K910" t="inlineStr"/>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -33304,11 +31222,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K911" t="inlineStr"/>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -33341,11 +31255,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K912" t="inlineStr"/>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -33374,17 +31284,11 @@
         <v>-38153505.37522504</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>82.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K913" t="inlineStr"/>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -33417,11 +31321,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K914" t="inlineStr"/>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -33454,11 +31354,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K915" t="inlineStr"/>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -33487,17 +31383,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>82.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K916" t="inlineStr"/>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -33526,17 +31416,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>82.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K917" t="inlineStr"/>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -33565,17 +31449,11 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>82.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K918" t="inlineStr"/>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -33604,17 +31482,11 @@
         <v>-38291264.14092503</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>82.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K919" t="inlineStr"/>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -33647,11 +31519,7 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K920" t="inlineStr"/>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -33684,11 +31552,7 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K921" t="inlineStr"/>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -33721,11 +31585,7 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K922" t="inlineStr"/>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -33758,11 +31618,7 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K923" t="inlineStr"/>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -33795,11 +31651,7 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K924" t="inlineStr"/>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -33832,11 +31684,7 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K925" t="inlineStr"/>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -33869,11 +31717,7 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K926" t="inlineStr"/>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -33902,23 +31746,17 @@
         <v>-38279614.43423762</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>82.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="n">
         <v>1</v>
       </c>
       <c r="M927" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest XLM.xlsx
+++ b/BackTest/2019-11-02 BackTest XLM.xlsx
@@ -451,7 +451,7 @@
         <v>9349097.119300216</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>9224506.790200217</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>9045082.263020758</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>9346704.419720758</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>9672977.843520757</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>9817950.011720758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>9607759.882220758</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>9645268.431330519</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>9560097.196507268</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>9756863.006358799</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>9676391.788758799</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>9540562.268358799</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>7265065.745162941</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>2528962.41356294</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-4798183.476347639</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-8806025.741924118</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-8903784.213724118</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4391615.617024119</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4379556.805124119</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4481647.543824119</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-1360405.717824119</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-1459063.598324119</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>1502485.431475882</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>4219882.417075882</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>1724078.649275882</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2685436.606441057</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-23299847.22775896</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-23301589.93105896</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-23371068.53005896</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-23356684.32065896</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-23409509.20655896</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-23176511.46205896</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>-37846244.95242684</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-34117686.18044867</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-33909751.73994868</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-33910566.30754867</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-33917199.30754867</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-33936567.47914868</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-33937567.58074868</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-33937597.58074868</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-33944420.42264868</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-33956477.70414867</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-33977332.23264868</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-33964998.14904868</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-33977718.37284868</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-33992110.84584868</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,11 +21340,17 @@
         <v>-34091122.65844868</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21373,11 +21379,17 @@
         <v>-34067493.40744868</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21422,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21459,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21472,11 +21492,17 @@
         <v>-34068883.96554868</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21505,11 +21531,17 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21538,11 +21570,17 @@
         <v>-34063883.96554868</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>81</v>
+      </c>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21571,11 +21609,17 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>81</v>
+      </c>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21604,11 +21648,17 @@
         <v>-34058883.96554868</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I643" t="n">
+        <v>81.09999999999999</v>
+      </c>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21691,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21670,11 +21724,15 @@
         <v>-34060600.90294868</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21703,11 +21761,17 @@
         <v>-33979431.24161617</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>81</v>
+      </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21736,11 +21800,15 @@
         <v>-33961853.54151617</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21769,11 +21837,15 @@
         <v>-33966822.03871617</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21802,11 +21874,15 @@
         <v>-33979996.03861617</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -21839,7 +21915,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +21948,17 @@
         <v>-34037704.01871616</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +21987,17 @@
         <v>-34035090.52181616</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -21934,11 +22026,17 @@
         <v>-34020159.02161616</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -21967,11 +22065,17 @@
         <v>-33969044.20646127</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22000,11 +22104,17 @@
         <v>-33970644.20646127</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22033,11 +22143,17 @@
         <v>-33972882.93606127</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22066,11 +22182,17 @@
         <v>-33961981.66986127</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22103,7 +22225,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22136,7 +22262,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22169,7 +22299,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22202,7 +22336,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22235,7 +22373,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22268,7 +22410,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22301,7 +22447,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22334,7 +22484,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22371,7 +22525,7 @@
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L666" t="n">
@@ -22519,11 +22673,9 @@
         <v>-33975863.32246128</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -22558,11 +22710,9 @@
         <v>-34059159.94706128</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -22597,11 +22747,9 @@
         <v>-34053967.82016128</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>80.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -22636,11 +22784,9 @@
         <v>-34053867.79006127</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>80.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -23378,9 +23524,11 @@
         <v>-34068036.34884153</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -23415,9 +23563,11 @@
         <v>-34072075.28164153</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -23452,9 +23602,11 @@
         <v>-34056877.38424153</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -23933,9 +24085,11 @@
         <v>-34048273.75184153</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr">
         <is>
@@ -23970,9 +24124,11 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>81</v>
+      </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr">
         <is>
@@ -24007,9 +24163,11 @@
         <v>-34048379.75184153</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr">
         <is>
@@ -24044,9 +24202,11 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr">
         <is>
@@ -24081,9 +24241,11 @@
         <v>-34057157.75184153</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr">
         <is>
@@ -24118,9 +24280,11 @@
         <v>-34108219.73414153</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr">
         <is>
@@ -24155,9 +24319,11 @@
         <v>-34108117.38344153</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr">
         <is>
@@ -24192,9 +24358,11 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24229,9 +24397,11 @@
         <v>-34158455.99454153</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr">
         <is>
@@ -24266,9 +24436,11 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr">
         <is>
@@ -24340,9 +24512,11 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -24377,9 +24551,11 @@
         <v>-34154853.37724154</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -24414,9 +24590,11 @@
         <v>-34156329.88724153</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -24451,9 +24629,11 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -24488,9 +24668,11 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -24525,9 +24707,11 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -24562,9 +24746,11 @@
         <v>-34160322.28564154</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr">
         <is>
@@ -24599,9 +24785,11 @@
         <v>-34161681.38274153</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -24714,9 +24902,11 @@
         <v>-34136800.22024153</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
@@ -24788,9 +24978,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -24825,9 +25017,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>80</v>
+      </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -24862,9 +25056,11 @@
         <v>-34155615.02234153</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>80</v>
+      </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -24899,9 +25095,11 @@
         <v>-34364347.70824154</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>80</v>
+      </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
@@ -25053,9 +25251,11 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr">
         <is>
@@ -25090,9 +25290,11 @@
         <v>-34363301.41854154</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25127,9 +25329,11 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
@@ -25164,9 +25368,11 @@
         <v>-34368118.74044154</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25201,9 +25407,11 @@
         <v>-34353718.74044154</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25238,9 +25446,11 @@
         <v>-34309040.22224154</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>80.5</v>
+      </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr">
         <is>
@@ -25312,9 +25522,11 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25349,9 +25561,11 @@
         <v>-34311456.52474154</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>80</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25386,9 +25600,11 @@
         <v>-34273490.12214154</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>80</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25423,9 +25639,11 @@
         <v>-34274028.12224154</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25460,9 +25678,11 @@
         <v>-34296044.76254154</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>80</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25536,9 +25756,11 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25573,9 +25795,11 @@
         <v>-34280271.76254154</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -25610,9 +25834,11 @@
         <v>-34220339.83974154</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr">
         <is>
@@ -25647,9 +25873,11 @@
         <v>-34166217.93639582</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr">
         <is>
@@ -25721,9 +25949,11 @@
         <v>-34166697.93639582</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr">
         <is>
@@ -25758,9 +25988,11 @@
         <v>-34155670.38198914</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr">
         <is>
@@ -25795,9 +26027,11 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr">
         <is>
@@ -25832,9 +26066,11 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr">
         <is>
@@ -25869,9 +26105,11 @@
         <v>-34167060.23088913</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr">
         <is>
@@ -25906,9 +26144,11 @@
         <v>-34168540.74488913</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -25943,9 +26183,11 @@
         <v>-34169915.26288913</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -25980,9 +26222,11 @@
         <v>-34169905.26288913</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26017,9 +26261,11 @@
         <v>-34171599.56318913</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26054,9 +26300,11 @@
         <v>-34171589.56318913</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26091,9 +26339,11 @@
         <v>-34181907.22818913</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26128,9 +26378,11 @@
         <v>-34178171.23815178</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
@@ -26165,9 +26417,11 @@
         <v>-34180514.26865178</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
@@ -26202,9 +26456,11 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
@@ -26239,9 +26495,11 @@
         <v>-34173962.78235178</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>80</v>
+      </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
@@ -26276,9 +26534,11 @@
         <v>-34198740.40835179</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>80</v>
+      </c>
       <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
@@ -26313,9 +26573,11 @@
         <v>-34190513.16495179</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
@@ -26350,9 +26612,11 @@
         <v>-34200606.23585179</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
@@ -26387,9 +26651,11 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>79.8</v>
+      </c>
       <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
@@ -26424,9 +26690,11 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>80</v>
+      </c>
       <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
@@ -26461,9 +26729,11 @@
         <v>-34199915.11085179</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>80</v>
+      </c>
       <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
@@ -26498,9 +26768,11 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>80</v>
+      </c>
       <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
@@ -26535,9 +26807,11 @@
         <v>-34187470.19255178</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
@@ -26572,9 +26846,11 @@
         <v>-34190427.86175179</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
@@ -26609,9 +26885,11 @@
         <v>-34176020.84554917</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>79.7</v>
+      </c>
       <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
@@ -26646,9 +26924,11 @@
         <v>-34192862.31764916</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
@@ -26683,9 +26963,11 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>79.8</v>
+      </c>
       <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
@@ -26720,9 +27002,11 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
@@ -26757,9 +27041,11 @@
         <v>-34158739.70144916</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
@@ -26794,9 +27080,11 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
@@ -26831,9 +27119,11 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
@@ -26868,9 +27158,11 @@
         <v>-34140439.70144916</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
@@ -26905,9 +27197,11 @@
         <v>-34139934.04064916</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
@@ -26942,9 +27236,11 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
@@ -26979,9 +27275,11 @@
         <v>-34137191.04064916</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
@@ -27016,9 +27314,11 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
@@ -27053,9 +27353,11 @@
         <v>-34144393.31414916</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
-      </c>
-      <c r="I792" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I792" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
@@ -27090,9 +27392,11 @@
         <v>-34154393.31414916</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
-      </c>
-      <c r="I793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I793" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
@@ -27127,9 +27431,11 @@
         <v>-34219587.76784916</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
-      </c>
-      <c r="I794" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I794" t="n">
+        <v>80</v>
+      </c>
       <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
@@ -27164,9 +27470,11 @@
         <v>-34199329.14684916</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
-      </c>
-      <c r="I795" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I795" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
@@ -27201,9 +27509,11 @@
         <v>-34219329.14684916</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
@@ -27238,9 +27548,11 @@
         <v>-34219070.52584916</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>80</v>
+      </c>
       <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
@@ -27275,9 +27587,11 @@
         <v>-34218494.30174916</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
@@ -27312,9 +27626,11 @@
         <v>-34218752.92274916</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
@@ -27349,9 +27665,11 @@
         <v>-34221453.54614916</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
@@ -27386,9 +27704,11 @@
         <v>-34220110.49854916</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
@@ -27423,9 +27743,11 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
@@ -27460,9 +27782,11 @@
         <v>-34168136.85384917</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
@@ -27497,9 +27821,11 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
@@ -27534,9 +27860,11 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
@@ -27571,9 +27899,11 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
@@ -27608,9 +27938,11 @@
         <v>-34187167.82384916</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
@@ -27645,9 +27977,11 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
@@ -27682,9 +28016,11 @@
         <v>-34171776.72894917</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
-      </c>
-      <c r="I809" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I809" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
@@ -27719,9 +28055,11 @@
         <v>-34212831.10076132</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
@@ -27756,9 +28094,11 @@
         <v>-34211961.10076132</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
@@ -27793,9 +28133,11 @@
         <v>-34716770.18596131</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>80.2</v>
+      </c>
       <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
@@ -27830,9 +28172,11 @@
         <v>-34718477.90626131</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
@@ -27867,9 +28211,11 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>79.90000000000001</v>
+      </c>
       <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
@@ -27904,9 +28250,11 @@
         <v>-34678548.71256131</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
@@ -27941,9 +28289,11 @@
         <v>-34678495.57226131</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
@@ -27978,9 +28328,11 @@
         <v>-34689488.82356131</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
@@ -28015,9 +28367,11 @@
         <v>-34569279.54586131</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>80</v>
+      </c>
       <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
@@ -28052,9 +28406,11 @@
         <v>-34580492.51956131</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
@@ -28089,9 +28445,11 @@
         <v>-34561412.37012171</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
@@ -28126,9 +28484,11 @@
         <v>-34567354.15542171</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
@@ -28163,9 +28523,11 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>80.09999999999999</v>
+      </c>
       <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
@@ -28200,9 +28562,11 @@
         <v>-34554821.15542171</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
@@ -28237,9 +28601,11 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>80.40000000000001</v>
+      </c>
       <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
@@ -28274,9 +28640,11 @@
         <v>-34589692.43302171</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
@@ -28311,9 +28679,11 @@
         <v>-34557498.77582171</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>80.3</v>
+      </c>
       <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
@@ -28348,9 +28718,11 @@
         <v>-34522296.68052171</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>80.59999999999999</v>
+      </c>
       <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
@@ -28385,9 +28757,11 @@
         <v>-34501968.63082171</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
@@ -28422,9 +28796,11 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>81</v>
+      </c>
       <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
@@ -28459,9 +28835,11 @@
         <v>-34489268.63082171</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
@@ -28496,9 +28874,11 @@
         <v>-34489258.63082171</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
@@ -28533,9 +28913,11 @@
         <v>-34489258.63082171</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
@@ -28570,9 +28952,11 @@
         <v>-34489271.53732171</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
@@ -28607,9 +28991,11 @@
         <v>-34474626.53732171</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
@@ -28644,9 +29030,11 @@
         <v>-34487527.43782171</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
@@ -28681,9 +29069,11 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
@@ -28718,9 +29108,11 @@
         <v>-34501600.77462171</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>81</v>
+      </c>
       <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
@@ -28755,9 +29147,11 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>81</v>
+      </c>
       <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
@@ -28792,9 +29186,11 @@
         <v>-34533017.44312171</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
@@ -28829,9 +29225,11 @@
         <v>-34495237.90962171</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -28866,9 +29264,11 @@
         <v>-34555274.70492171</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>81.59999999999999</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -28940,9 +29340,11 @@
         <v>-34558905.32582171</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>81.3</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -28977,9 +29379,11 @@
         <v>-34489518.54846618</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -29014,9 +29418,11 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -29051,9 +29457,11 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -29088,9 +29496,11 @@
         <v>-34524335.07106619</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -29125,9 +29535,11 @@
         <v>-34483926.92426619</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>80.7</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -29162,9 +29574,11 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>81.2</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -29236,16 +29650,18 @@
         <v>-34483909.06716619</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
       <c r="M851" t="inlineStr"/>
     </row>
     <row r="852">
@@ -29271,11 +29687,15 @@
         <v>-34483890.19323719</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -29304,11 +29724,15 @@
         <v>-34504314.91763718</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -29337,11 +29761,15 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -29370,11 +29798,15 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -29403,11 +29835,17 @@
         <v>-34509206.66723718</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>81</v>
+      </c>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -29436,11 +29874,15 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -29469,11 +29911,15 @@
         <v>-34502956.66823719</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -29502,11 +29948,15 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -29535,11 +29985,17 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -29568,11 +30024,17 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -29601,11 +30063,17 @@
         <v>-34527341.77793719</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -29634,11 +30102,17 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>80.8</v>
+      </c>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -29667,11 +30141,17 @@
         <v>-34357341.77793719</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -29700,11 +30180,17 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>80.90000000000001</v>
+      </c>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -29733,11 +30219,17 @@
         <v>-34348341.43653719</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>81</v>
+      </c>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29766,11 +30258,17 @@
         <v>-34347491.05713719</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>81</v>
+      </c>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29799,11 +30297,17 @@
         <v>-34333218.05833719</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>81.40000000000001</v>
+      </c>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29832,11 +30336,15 @@
         <v>-34343163.56513719</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29865,11 +30373,15 @@
         <v>-34323163.56513719</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29898,11 +30410,15 @@
         <v>-34355017.9658372</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29931,11 +30447,15 @@
         <v>-31401423.24193719</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29964,11 +30484,15 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29997,11 +30521,15 @@
         <v>-34076709.4042372</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -30030,11 +30558,15 @@
         <v>-34073313.7908372</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -30063,11 +30595,15 @@
         <v>-34073303.7908372</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -30096,11 +30632,15 @@
         <v>-35473303.7908372</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -30129,11 +30669,15 @@
         <v>-35469629.5008372</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -30162,11 +30706,15 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30195,11 +30743,15 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -30228,11 +30780,15 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -30261,11 +30817,15 @@
         <v>-35416693.9978372</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -30298,7 +30858,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -30331,7 +30895,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -30364,7 +30932,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -30397,7 +30969,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -30430,7 +31006,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -30463,7 +31043,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -30496,7 +31080,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -30529,7 +31117,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30562,7 +31154,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30595,7 +31191,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30628,7 +31228,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30661,7 +31265,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30694,7 +31302,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30727,7 +31339,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30760,7 +31376,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30793,7 +31413,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30826,7 +31450,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30859,7 +31487,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30892,7 +31524,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30925,7 +31561,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30958,7 +31598,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30991,7 +31635,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -31024,7 +31672,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -31057,7 +31709,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -31090,7 +31746,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -31123,7 +31783,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -31156,7 +31820,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -31189,7 +31857,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -31222,7 +31894,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -31255,7 +31931,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -31288,7 +31968,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -31321,7 +32005,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -31354,7 +32042,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -31383,11 +32075,17 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>82.40000000000001</v>
+      </c>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -31416,11 +32114,17 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -31449,11 +32153,17 @@
         <v>-38315649.27842504</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>82.2</v>
+      </c>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -31486,7 +32196,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -31519,7 +32233,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -31552,7 +32270,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -31585,7 +32307,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -31618,7 +32344,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -31651,7 +32381,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -31684,7 +32418,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -31717,7 +32455,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -31746,11 +32488,17 @@
         <v>-38279614.43423762</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>82.40000000000001</v>
+      </c>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
